--- a/src/main/resources/example.xlsx
+++ b/src/main/resources/example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zy_workspace\za-productcfg\product\真意保\真意二期\16 横琴优康宝重疾\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myworkspace\InsuredProductXmlGenerator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="851" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="851" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表说明" sheetId="80" r:id="rId1"/>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>险种页签</t>
-  </si>
-  <si>
-    <t>1-重疾</t>
   </si>
   <si>
     <t>1-重疾 2-终身寿 3-年金 4-意外 5-其他</t>
@@ -689,6 +686,10 @@
     <t>这一项需要显示吗？</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>重疾</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -704,17 +705,20 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -722,51 +726,60 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1553,164 +1566,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1732,12 +1587,170 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2192,57 +2205,57 @@
       <c r="C5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="2:9" ht="16.5">
       <c r="C6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="2:9" ht="16.5">
       <c r="C7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
     </row>
     <row r="8" spans="2:9" ht="16.5">
       <c r="C8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="2:9" ht="16.5">
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
     </row>
     <row r="10" spans="2:9" ht="16.5">
       <c r="C10" s="74" t="s">
@@ -2348,9 +2361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2381,11 +2394,11 @@
       <c r="A2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="149" t="s">
-        <v>192</v>
+      <c r="C2" s="97" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>28</v>
@@ -2669,11 +2682,11 @@
       <c r="A5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="151" t="s">
-        <v>193</v>
+      <c r="C5" s="99" t="s">
+        <v>192</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>28</v>
@@ -2854,16 +2867,16 @@
         <v>44</v>
       </c>
       <c r="B10" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="69"/>
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
@@ -2871,73 +2884,73 @@
     </row>
     <row r="12" spans="1:46" ht="16.899999999999999" customHeight="1">
       <c r="A12" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="C12" s="68" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="69"/>
     </row>
     <row r="13" spans="1:46" ht="16.899999999999999" customHeight="1">
       <c r="A13" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="C13" s="68" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="69"/>
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="C14" s="68" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="C15" s="68" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>61</v>
-      </c>
       <c r="C16" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="69"/>
     </row>
@@ -2992,271 +3005,271 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="121" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="B2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="120"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25">
+      <c r="A3" s="121"/>
+      <c r="B3" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="118"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="55" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="56"/>
-      <c r="E3" s="118"/>
+      <c r="E3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="111"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="D4" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="E4" s="120"/>
+    </row>
+    <row r="5" spans="1:5" ht="75.95" customHeight="1">
+      <c r="A5" s="121"/>
+      <c r="B5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="118"/>
-    </row>
-    <row r="5" spans="1:5" ht="75.95" customHeight="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="55" t="s">
+      <c r="C5" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="120"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="121"/>
+      <c r="B6" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="111"/>
-      <c r="B6" s="55" t="s">
+      <c r="C6" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="120"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="121"/>
+      <c r="B7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="118"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="111"/>
-      <c r="B7" s="55" t="s">
+      <c r="C7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="120"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25">
+      <c r="A8" s="121"/>
+      <c r="B8" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="118"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="58" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="120"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="121"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="120"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="121"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="120"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="121"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="120"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="121"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="120"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="121"/>
+      <c r="B13" s="58" t="s">
         <v>79</v>
-      </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="118"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="111"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="118"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="111"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="118"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="111"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="118"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="111"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="118"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="111"/>
-      <c r="B13" s="58" t="s">
-        <v>80</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="118"/>
+      <c r="E13" s="120"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="111"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="118"/>
+      <c r="E14" s="120"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="111"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="D15" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="E15" s="120"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="121"/>
+      <c r="B16" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="118"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="111"/>
-      <c r="B16" s="61" t="s">
+      <c r="C16" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="D16" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="120"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="121"/>
+      <c r="B17" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="118"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="111"/>
-      <c r="B17" s="61" t="s">
+      <c r="C17" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="120"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="121"/>
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="118"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="111"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="D18" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="E18" s="120"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="121"/>
+      <c r="B19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E18" s="118"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="111"/>
-      <c r="B19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="118"/>
+        <v>90</v>
+      </c>
+      <c r="E19" s="120"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="111"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="120"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="118"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="112" t="s">
+      <c r="B21" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="D21" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="E21" s="120"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="123"/>
+      <c r="B22" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="118"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="113"/>
-      <c r="B22" s="34" t="s">
+      <c r="C22" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="55" t="s">
+      <c r="E22" s="120"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A23" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="118"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A23" s="114" t="s">
+      <c r="B23" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="C23" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="D23" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="120"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="125"/>
+      <c r="B24" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="118"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="115"/>
-      <c r="B24" s="55" t="s">
+      <c r="C24" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="118"/>
+      <c r="E24" s="120"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E24"/>
@@ -3299,24 +3312,24 @@
         <v>22</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="36" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="36" t="s">
@@ -3450,8 +3463,8 @@
       </c>
     </row>
     <row r="3" spans="1:47" s="36" customFormat="1">
-      <c r="A3" s="120" t="s">
-        <v>110</v>
+      <c r="A3" s="130" t="s">
+        <v>109</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
@@ -3584,7 +3597,7 @@
       </c>
     </row>
     <row r="4" spans="1:47" s="36" customFormat="1">
-      <c r="A4" s="121"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="46"/>
       <c r="C4" s="47"/>
       <c r="D4" s="46"/>
@@ -3719,36 +3732,36 @@
       </c>
     </row>
     <row r="5" spans="1:47">
-      <c r="A5" s="121"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="46"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:47">
-      <c r="A6" s="121"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="46"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="121"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="48"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="122"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="48"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="125"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="135"/>
     </row>
     <row r="10" spans="1:47">
-      <c r="A10" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
+      <c r="A10" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3768,7 +3781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
@@ -3782,140 +3795,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="153" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="127" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="128" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="149" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="129" t="s">
+      <c r="B4" s="149"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="130" t="s">
+      <c r="B5" s="147"/>
+      <c r="C5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="149" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="129" t="s">
+      <c r="B6" s="149"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="130" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="129" t="s">
+      <c r="B8" s="149"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="150"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="128" t="s">
+      <c r="B10" s="151"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" s="130" t="s">
+      <c r="B11" s="147"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="132" t="s">
+      <c r="B12" s="148"/>
+      <c r="C12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="149" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" s="129" t="s">
+      <c r="B13" s="149"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" s="111" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5">
-      <c r="A15" s="131" t="s">
+      <c r="B15" s="150"/>
+      <c r="C15" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="87.95" customHeight="1">
+      <c r="A17" s="141" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="87.95" customHeight="1">
-      <c r="A17" s="133" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
@@ -3925,217 +3938,232 @@
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="111.75" customHeight="1">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="48" customHeight="1">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" customHeight="1">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="157" t="s">
-        <v>194</v>
+      <c r="D24" s="104" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="23"/>
       <c r="B25" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="23"/>
       <c r="B26" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="16.5">
+      <c r="A27" s="146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5">
-      <c r="A27" s="138" t="s">
+      <c r="B27" s="121"/>
+      <c r="C27" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="28" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="136" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5">
-      <c r="A34" s="139" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25">
+      <c r="A36" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="140"/>
-      <c r="C34" s="141"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.25">
-      <c r="A36" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="143"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="17.25">
       <c r="A37" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>164</v>
       </c>
       <c r="C37" s="32"/>
     </row>
     <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>166</v>
       </c>
       <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>168</v>
       </c>
       <c r="C39" s="32"/>
     </row>
     <row r="40" spans="1:3" ht="17.25">
       <c r="A40" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>169</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>170</v>
       </c>
       <c r="C40" s="35"/>
     </row>
     <row r="41" spans="1:3" ht="17.25">
       <c r="A41" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="31" t="s">
         <v>171</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>172</v>
       </c>
       <c r="C41" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C34"/>
   <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A17:B17"/>
@@ -4143,21 +4171,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4181,83 +4194,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="155"/>
     </row>
     <row r="2" spans="1:2" ht="16.5">
-      <c r="A2" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="147"/>
+      <c r="A2" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="157"/>
     </row>
     <row r="3" spans="1:2" ht="16.5">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33">
       <c r="A4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="16.5">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="33">
       <c r="A11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4289,30 +4302,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5">
       <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="118.5" customHeight="1"/>

--- a/src/main/resources/example.xlsx
+++ b/src/main/resources/example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="851" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="851" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总表说明" sheetId="80" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="投保规则" sheetId="83" r:id="rId3"/>
     <sheet name="险种搭配" sheetId="58" r:id="rId4"/>
     <sheet name="利益演示" sheetId="87" r:id="rId5"/>
-    <sheet name="示例1" sheetId="88" r:id="rId6"/>
-    <sheet name="产品UI图片" sheetId="86" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="89" r:id="rId6"/>
+    <sheet name="示例1" sheetId="88" r:id="rId7"/>
+    <sheet name="产品UI图片" sheetId="86" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">利益演示!$A$1:$C$34</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="201">
   <si>
     <t>主    题</t>
   </si>
@@ -260,12 +261,6 @@
     <t>65周岁</t>
   </si>
   <si>
-    <t>保费/保额</t>
-  </si>
-  <si>
-    <t>以10000元的整数倍递增</t>
-  </si>
-  <si>
     <t>最低保额</t>
   </si>
   <si>
@@ -279,9 +274,6 @@
   </si>
   <si>
     <t>最高保费</t>
-  </si>
-  <si>
-    <t>交费频次</t>
   </si>
   <si>
     <t>趸交、年交</t>
@@ -688,6 +680,42 @@
   </si>
   <si>
     <t>重疾</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费保额</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>保额算保费</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费方式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部标识</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司编码</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单位</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY000099</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>generali</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1685,6 +1713,27 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,27 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2359,11 +2387,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2398,7 +2426,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>28</v>
@@ -2686,7 +2714,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>28</v>
@@ -2867,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>45</v>
@@ -2953,6 +2981,30 @@
         <v>60</v>
       </c>
       <c r="D17" s="69"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D17"/>
@@ -2988,8 +3040,8 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3069,10 +3121,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="121"/>
       <c r="B6" s="55" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="D6" s="101"/>
       <c r="E6" s="120"/>
@@ -3080,10 +3132,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="121"/>
       <c r="B7" s="55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="56"/>
       <c r="E7" s="120"/>
@@ -3091,7 +3143,7 @@
     <row r="8" spans="1:5" ht="17.25">
       <c r="A8" s="121"/>
       <c r="B8" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="102"/>
       <c r="D8" s="102"/>
@@ -3128,7 +3180,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="121"/>
       <c r="B13" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
@@ -3137,7 +3189,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="121"/>
       <c r="B14" s="55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="56"/>
@@ -3146,36 +3198,36 @@
     <row r="15" spans="1:5">
       <c r="A15" s="121"/>
       <c r="B15" s="61" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="120"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="121"/>
       <c r="B16" s="61" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" s="120"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="121"/>
       <c r="B17" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="120"/>
@@ -3183,91 +3235,91 @@
     <row r="18" spans="1:5">
       <c r="A18" s="121"/>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E18" s="120"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="121"/>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19" s="120"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="121"/>
       <c r="B20" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="120"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>94</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>97</v>
       </c>
       <c r="E21" s="120"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="123"/>
       <c r="B22" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E22" s="120"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1">
       <c r="A23" s="124" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E23" s="120"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="125"/>
       <c r="B24" s="55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E24" s="120"/>
     </row>
@@ -3312,18 +3364,18 @@
         <v>22</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="36" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>57</v>
@@ -3464,7 +3516,7 @@
     </row>
     <row r="3" spans="1:47" s="36" customFormat="1">
       <c r="A3" s="130" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
@@ -3757,7 +3809,7 @@
     </row>
     <row r="10" spans="1:47">
       <c r="A10" s="129" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="129"/>
       <c r="C10" s="129"/>
@@ -3782,8 +3834,8 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="A16:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3795,140 +3847,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="137"/>
+      <c r="C2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="5" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="153" t="s">
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="151" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="6" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="149" t="s">
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="147" t="s">
+      <c r="B6" s="139"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="7" t="s">
+      <c r="B7" s="140"/>
+      <c r="C7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="139" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="149" t="s">
+      <c r="B8" s="139"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="141"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="147" t="s">
+      <c r="B10" s="138"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="149" t="s">
+      <c r="B11" s="140"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="150" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="151" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="151"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" s="147" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="148"/>
-      <c r="C12" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" s="149" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="149"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="121" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="121"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="16.5">
-      <c r="A15" s="150" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="150"/>
+      <c r="A15" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="141"/>
       <c r="C15" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="87.95" customHeight="1">
-      <c r="A17" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="141"/>
+      <c r="A17" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="148"/>
       <c r="C17" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
@@ -3938,232 +3990,217 @@
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="111.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="143"/>
+      <c r="A20" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="150"/>
       <c r="C20" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="48" customHeight="1">
-      <c r="A22" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="143"/>
+      <c r="A22" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="150"/>
       <c r="C22" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" customHeight="1">
-      <c r="A24" s="144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="145"/>
+      <c r="A24" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="152"/>
       <c r="C24" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="23"/>
       <c r="B25" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="23"/>
       <c r="B26" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
-      <c r="A27" s="146" t="s">
-        <v>145</v>
+      <c r="A27" s="153" t="s">
+        <v>142</v>
       </c>
       <c r="B27" s="121"/>
       <c r="C27" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" s="143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="144"/>
+      <c r="C34" s="145"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25">
+      <c r="A36" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5">
-      <c r="A34" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.25">
-      <c r="A36" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="140"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="17.25">
       <c r="A37" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C37" s="32"/>
     </row>
     <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" s="32"/>
     </row>
     <row r="40" spans="1:3" ht="17.25">
       <c r="A40" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C40" s="35"/>
     </row>
     <row r="41" spans="1:3" ht="17.25">
       <c r="A41" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C41" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C34"/>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A17:B17"/>
@@ -4171,6 +4208,21 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4180,10 +4232,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4201,76 +4266,76 @@
     </row>
     <row r="2" spans="1:2" ht="16.5">
       <c r="A2" s="156" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" s="157"/>
     </row>
     <row r="3" spans="1:2" ht="16.5">
       <c r="A3" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5">
       <c r="A8" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5">
       <c r="A9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="16.5">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="33">
       <c r="A11" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -4302,30 +4367,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5">
       <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5">
       <c r="A2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="118.5" customHeight="1"/>
